--- a/docs/StructureDefinition-account-statementGeneratedDay.xlsx
+++ b/docs/StructureDefinition-account-statementGeneratedDay.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-account-statementGeneratedDay.xlsx
+++ b/docs/StructureDefinition-account-statementGeneratedDay.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.10</t>
+    <t>1.4.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T16:44:16+00:00</t>
+    <t>2025-04-30T18:27:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
